--- a/Car Rental System.xlsx
+++ b/Car Rental System.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rithikka\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6980296F-3803-4EC8-B635-EA0C8DD86704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5977E3-CDAE-4969-964F-D9C0C05A89A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BBC496E-DE80-490B-BA1F-43E5EA465404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0BBC496E-DE80-490B-BA1F-43E5EA465404}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="54">
   <si>
     <t>Project Name     :</t>
   </si>
@@ -181,6 +184,21 @@
   </si>
   <si>
     <t>It should display a highlighted red message</t>
+  </si>
+  <si>
+    <t>6.Click on dashboard</t>
+  </si>
+  <si>
+    <t>Car Rental Management</t>
+  </si>
+  <si>
+    <t>Day 2 Admin Login</t>
+  </si>
+  <si>
+    <t>Verify whether content features in the dashboard is enabled</t>
+  </si>
+  <si>
+    <t>It should display the contents in the section</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +262,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916A7B26-2915-48C5-9B7A-0DEA651C0475}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -917,4 +941,424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77D0D6-A522-433A-83B2-78726BCEC936}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2911DC90-24C9-4EC5-85B7-E2EFCFE8D478}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A552B72-DF7A-4B26-918B-7267AA708AFC}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>